--- a/ElonMusk/2023-02-08/ElonMusk.xlsx
+++ b/ElonMusk/2023-02-08/ElonMusk.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCS110101\Desktop\每周進度\MyResearch\ElonMusk\2023-02-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GNN-Database\ElonMusk\2023-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C188A8-C2E9-40A5-9B98-EF0FA9F00A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="1920" windowWidth="24180" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
   <si>
     <t>id</t>
   </si>
@@ -980,13 +982,135 @@
   </si>
   <si>
     <t>@SPACEdotcom !</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpaceX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>politician</t>
+  </si>
+  <si>
+    <t>reply_someone_tweet</t>
+  </si>
+  <si>
+    <t>quote_someone_tweet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_own_tweet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote_own_tweet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623014136258117633</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623182547373985793</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622739987031552002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622825979021492229</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623125279773446145</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shitpost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622749594093330432</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irony</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623152067547394050</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622440235203264517</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622774077676220416</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623470635078012928</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkish government</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA government</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622814050240569344</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623059025075261443</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622758195268669442</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622740637891149825</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1137,22 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1056,13 +1196,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1122,7 +1267,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2195,7 +2339,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2214,9 +2364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2254,9 +2404,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2291,7 +2441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2326,7 +2476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2499,23 +2649,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C80"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2535,814 +2685,814 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>38643</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>31616</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>26957</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>21558</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>20954</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>18561</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>17413</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>16686</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>13581</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C11">
         <v>13355</v>
       </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
         <v>165</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3">
-        <v>871</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3">
-        <v>409</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <v>9771</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>8495</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>5659</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15">
+        <v>5385</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16">
+        <v>5356</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>4539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>3722</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>3655</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20">
+        <v>3505</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>3483</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22">
+        <v>3337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23">
+        <v>3092</v>
+      </c>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>2911</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <v>2879</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26">
+        <v>2781</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27">
+        <v>2428</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C28">
         <v>2305</v>
       </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
         <v>168</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1080</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>2286</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>2281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31">
+        <v>2209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32">
+        <v>2078</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>1961</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>1951</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>1907</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>1785</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>1651</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38">
+        <v>1445</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39">
+        <v>1403</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40">
+        <v>1395</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C41">
         <v>1393</v>
       </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
         <v>170</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F41" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="3">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1907</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="3">
-        <v>624</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="3">
-        <v>346</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="3">
-        <v>808</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="3">
-        <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="3">
-        <v>776</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="3">
-        <v>426</v>
-      </c>
-      <c r="D15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="3">
-        <v>31616</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3">
-        <v>17413</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1785</v>
-      </c>
-      <c r="D18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20954</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="3">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8495</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1951</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="3">
-        <v>268</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="3">
-        <v>306</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="3">
-        <v>38643</v>
-      </c>
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="3">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1651</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2209</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3655</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="3">
-        <v>21558</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="3">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="3">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="3">
-        <v>185</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9771</v>
-      </c>
-      <c r="D34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="3">
-        <v>316</v>
-      </c>
-      <c r="D35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="3">
-        <v>345</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="3">
-        <v>887</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1073</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1445</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2286</v>
-      </c>
-      <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2078</v>
-      </c>
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>1372</v>
       </c>
       <c r="D42" t="s">
@@ -3355,770 +3505,773 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="3">
-        <v>13581</v>
+        <v>130</v>
+      </c>
+      <c r="C43">
+        <v>1243</v>
       </c>
       <c r="D43" t="s">
         <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2428</v>
+        <v>89</v>
+      </c>
+      <c r="C44">
+        <v>1080</v>
       </c>
       <c r="D44" t="s">
         <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2781</v>
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <v>1073</v>
       </c>
       <c r="D45" t="s">
         <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46">
+        <v>949</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47">
+        <v>909</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>887</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49">
+        <v>871</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50">
+        <v>821</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>808</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>776</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53">
+        <v>704</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54">
+        <v>679</v>
+      </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55">
+        <v>663</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>624</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57">
+        <v>609</v>
+      </c>
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58">
+        <v>516</v>
+      </c>
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59">
+        <v>494</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60">
+        <v>453</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>426</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>409</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63">
+        <v>367</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64">
+        <v>346</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65">
+        <v>345</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66">
+        <v>316</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67">
+        <v>306</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69">
+        <v>216</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>190</v>
+      </c>
+      <c r="D71" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75">
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B76" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C76">
         <v>132</v>
       </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" t="s">
         <v>206</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F76" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1243</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B78" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C78">
         <v>81</v>
       </c>
-      <c r="D48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" t="s">
         <v>208</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="3">
-        <v>4539</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2879</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1961</v>
-      </c>
-      <c r="D51" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5659</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="3">
-        <v>609</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="3">
-        <v>949</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="3">
-        <v>18561</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="3">
-        <v>663</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="3">
-        <v>679</v>
-      </c>
-      <c r="D57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>217</v>
-      </c>
-      <c r="F57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="3">
-        <v>190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2281</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3337</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="3">
-        <v>5356</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="3">
-        <v>909</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="3">
-        <v>3505</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>223</v>
-      </c>
-      <c r="F63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="3">
-        <v>5385</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="3">
-        <v>26957</v>
-      </c>
-      <c r="D65" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="3">
-        <v>494</v>
-      </c>
-      <c r="D66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="3">
-        <v>3483</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" t="s">
-        <v>227</v>
-      </c>
-      <c r="F67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="3">
-        <v>216</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" t="s">
-        <v>228</v>
-      </c>
-      <c r="F68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="3">
-        <v>821</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2911</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="3">
-        <v>516</v>
-      </c>
-      <c r="D71" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F71" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3">
-        <v>142</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="3">
-        <v>3092</v>
-      </c>
-      <c r="D73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" t="s">
-        <v>233</v>
-      </c>
-      <c r="F73" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="3">
-        <v>453</v>
-      </c>
-      <c r="D74" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1403</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" t="s">
-        <v>235</v>
-      </c>
-      <c r="F75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="3">
-        <v>367</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="3">
-        <v>3722</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="3">
-        <v>16686</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" t="s">
-        <v>238</v>
-      </c>
-      <c r="F78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1395</v>
-      </c>
-      <c r="D79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" t="s">
-        <v>239</v>
-      </c>
-      <c r="F79" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="3">
-        <v>704</v>
-      </c>
       <c r="D80" t="s">
         <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
+    <sortCondition descending="1" ref="C1:C80"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4126,416 +4279,966 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>38643</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>31616</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>26957</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>21558</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>20954</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>18561</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>17413</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>16686</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>13581</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>13355</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>9771</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>8495</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>5659</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>5385</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>5356</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>3722</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3655</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3505</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3483</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3337</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>3092</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2911</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2879</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2781</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2428</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2305</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2286</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2281</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2078</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1961</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>1951</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>1907</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>1785</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1651</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1445</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>1403</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1395</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1393</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>1372</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>1243</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>1080</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>1073</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>949</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>909</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>887</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>871</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>808</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>776</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>663</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>624</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>494</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:A82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A82">
     <sortCondition descending="1" ref="A4"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ADE4E1-47E7-4943-9D45-C831740B03D4}">
+  <dimension ref="A1:R80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ElonMusk/2023-02-08/ElonMusk.xlsx
+++ b/ElonMusk/2023-02-08/ElonMusk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GNN-Database\ElonMusk\2023-02-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GNN-Database\ElonMusk\2023-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C188A8-C2E9-40A5-9B98-EF0FA9F00A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46AA83-A695-4115-8950-BACD34698F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1920" windowWidth="24180" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="1850" windowWidth="33810" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -1018,10 +1018,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>emotion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1623014136258117633</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1103,6 +1099,289 @@
   </si>
   <si>
     <t>1622740637891149825</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622745298438176770</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622761125719711744</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>1622461270573125632</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622828957878943745</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622740927256182784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622714213876498432</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622746027152273409</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622627861013180417</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622668136834113563</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622760517692448769</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622771328947458051</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retweet_someone_tweet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622773181013696512</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623406984736444416</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622781982202789888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622746344019439616</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623004573060431872</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622781702140755969</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622759934210322432</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623031211269718018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623382273780490240</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623125413613674496</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623007428571979777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622785976056832000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622625034538811395</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622410277974118401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623384733471358977</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622781475270840320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622761988580417537</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623385726112104449</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622786376247943168</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622749812784304129</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622741554338177025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622786966281654274</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623419151321817088</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622707384438194197</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623216683237396481</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623189990015369216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622386236991148034</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622747293689561089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622748317707821061</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623381526431023105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622750409205882881</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622667709887520804</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622739134719590402</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622627382078185473</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623187046943580160</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623407154819641345</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622614826101997568</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623238667987832834</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622792446894833664</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622811818078109698</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623015554666868737</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623015997082071040</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622708936863350793</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623190177991561219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622746916999102465</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622821824169127937</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623011082465087488</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622632449032200192</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623382375584632834</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622767403318001664</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622823733651185664</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622761463692640256</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1622824202087858176</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1623106997490163713</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1150,7 +1429,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -2656,16 +2934,16 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2983,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +3003,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2745,7 +3023,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2765,7 +3043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2785,7 +3063,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +3083,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2825,7 +3103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2845,7 +3123,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +3143,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +3163,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2905,7 +3183,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2925,7 +3203,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2945,7 +3223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +3243,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2985,7 +3263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3005,7 +3283,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3025,7 +3303,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3045,7 +3323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3065,7 +3343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3085,7 +3363,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3105,7 +3383,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3125,7 +3403,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3145,7 +3423,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3165,7 +3443,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3185,7 +3463,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3205,7 +3483,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3503,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3245,7 +3523,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3265,7 +3543,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3285,7 +3563,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3583,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3325,7 +3603,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3345,7 +3623,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3643,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3385,7 +3663,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -3405,7 +3683,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3425,7 +3703,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3445,7 +3723,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -3465,7 +3743,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3485,7 +3763,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3505,7 +3783,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3525,7 +3803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -3565,7 +3843,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3585,7 +3863,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3605,7 +3883,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -3625,7 +3903,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3923,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3665,7 +3943,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3685,7 +3963,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -3705,7 +3983,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3725,7 +4003,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -3745,7 +4023,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3765,7 +4043,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3785,7 +4063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3805,7 +4083,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -3825,7 +4103,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3845,7 +4123,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -3865,7 +4143,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +4163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +4183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3925,7 +4203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3945,7 +4223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -3965,7 +4243,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3985,7 +4263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4283,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -4025,7 +4303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4045,7 +4323,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4065,7 +4343,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -4085,7 +4363,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -4105,7 +4383,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -4125,7 +4403,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4145,7 +4423,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4165,7 +4443,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -4185,7 +4463,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -4205,7 +4483,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -4225,7 +4503,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -4245,7 +4523,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -4286,399 +4564,399 @@
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38643</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31616</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26957</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21558</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20954</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18561</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17413</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16686</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13581</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13355</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9771</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8495</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5659</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5385</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5356</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3722</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3655</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3505</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3483</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3337</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3092</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2911</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2879</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2781</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2428</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2305</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2286</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2281</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2078</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1961</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1951</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1907</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1785</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1651</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1445</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1403</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1395</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1393</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1372</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1243</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1080</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1073</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>949</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>909</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>887</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>871</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>808</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>776</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>663</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>624</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>494</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>73</v>
       </c>
@@ -4695,26 +4973,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ADE4E1-47E7-4943-9D45-C831740B03D4}">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" customWidth="1"/>
+    <col min="11" max="11" width="19.09765625" customWidth="1"/>
+    <col min="12" max="12" width="18.3984375" customWidth="1"/>
+    <col min="13" max="13" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.09765625" customWidth="1"/>
+    <col min="16" max="16" width="11.09765625" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4731,10 +5011,10 @@
         <v>322</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1" t="s">
         <v>323</v>
@@ -4752,121 +5032,145 @@
         <v>327</v>
       </c>
       <c r="M1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="N1" t="s">
-        <v>328</v>
-      </c>
-      <c r="O1" t="s">
-        <v>331</v>
-      </c>
-      <c r="P1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -4874,367 +5178,892 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>24</v>
+        <v>419</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
